--- a/Configs/excels/职业配置表.xlsx
+++ b/Configs/excels/职业配置表.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="21000" windowHeight="11820"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="JobConfig" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -45,19 +45,13 @@
     <t>MagicDef</t>
   </si>
   <si>
-    <t>升级所需经验</t>
+    <t>LvUpExp</t>
   </si>
   <si>
     <t>int32</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>RepeatCheck:true MakeIndex:true</t>
-  </si>
-  <si>
-    <t>MakeIndex:true</t>
   </si>
   <si>
     <t>职业</t>
@@ -84,6 +78,9 @@
     <t>魔防</t>
   </si>
   <si>
+    <t>升级所需经验</t>
+  </si>
+  <si>
     <t>TableName: "JobConfig" Package: "DC" CSClassHeader: "[System.Serializable]"</t>
   </si>
 </sst>
@@ -92,12 +89,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,36 +104,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +126,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -173,7 +148,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +156,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,10 +225,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,21 +246,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -263,6 +253,72 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -272,7 +328,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +388,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,157 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,15 +447,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -486,11 +467,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,24 +515,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,148 +552,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -711,7 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1062,8 +1052,8 @@
   <sheetPr/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1110,7 +1100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1138,43 +1128,47 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3117,7 +3111,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
